--- a/biology/Zoologie/Crioceris/Crioceris.xlsx
+++ b/biology/Zoologie/Crioceris/Crioceris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crioceris est un genre d'insectes coléoptères de la famille des Chrysomelidae, de la sous-famille des Criocerinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (29 mai 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (29 mai 2014) :
 sous-genre Crioceris (Crioceris) Geoffroy, 1762
 Crioceris asparagi (Linnaeus, 1758)
 Crioceris duodecimpunctata (Linnaeus, 1758)</t>
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Fauna Europaea                                      (8 mars 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Fauna Europaea                                      (8 mars 2023) :
 Crioceris asparagi
 Crioceris bicruciata
 Crioceris duodecimpunctata
@@ -554,15 +570,15 @@
 Crioceris paracenthesis
 Crioceris quatuordecimpunctata
 Crioceris quinquepunctata
-Selon NCBI  (28 mai 2014)[3] :
+Selon NCBI  (28 mai 2014) :
 Crioceris asparagi
 Crioceris duodecimpunctata
 Crioceris paracenthesis
 Crioceris quatuordecimpunctata
 Crioceris quinquepunctata
-Selon Paleobiology Database                   (28 mai 2014)[4] :
+Selon Paleobiology Database                   (28 mai 2014) :
 Crioceris vetusta
-Selon Warchałowski 2010 (pour la zone paléarctique seulement)[5] :
+Selon Warchałowski 2010 (pour la zone paléarctique seulement) :
 Crioceris asparagi
 Crioceris macilenta
 Crioceris nigropicta
